--- a/Data/Test_DaoHam.xlsx
+++ b/Data/Test_DaoHam.xlsx
@@ -147,8 +147,8 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5:J21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
